--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-23.xlsx
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -3848,17 +3851,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3866,7 +3869,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3874,17 +3877,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3892,7 +3895,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3900,17 +3903,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3918,7 +3921,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3926,17 +3929,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3952,13 +3955,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -3978,51 +3981,77 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="26.25" customHeight="1">
-      <c r="K117" s="11">
-        <v>6356</v>
-      </c>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="12">
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>114</v>
+      </c>
+      <c t="s" r="B117" s="7">
         <v>154</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c t="s" r="F118" s="13">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c t="s" r="H117" s="8">
+        <v>149</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>40</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c r="N117" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="K118" s="11">
+        <v>6371</v>
+      </c>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" ht="17.25" customHeight="1">
+      <c t="s" r="A119" s="12">
         <v>155</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c t="s" r="I118" s="15">
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c t="s" r="F119" s="13">
         <v>156</v>
       </c>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c t="s" r="I119" s="15">
+        <v>157</v>
+      </c>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="350">
+  <mergeCells count="353">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4369,10 +4398,13 @@
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="I118:N118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="K118:N118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="I119:N119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
